--- a/3_Training_Validation/resource/BO_Best_Param.xlsx
+++ b/3_Training_Validation/resource/BO_Best_Param.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9813182362379925</v>
+        <v>0.690750644031752</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6761167647085348</v>
+        <v>0.9944244443355809</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06866662072634686</v>
+        <v>0.08387852485394162</v>
       </c>
       <c r="E2" t="n">
-        <v>9.91066708085804</v>
+        <v>7.429157158224079</v>
       </c>
       <c r="F2" t="n">
-        <v>680.9552846133532</v>
+        <v>917.4716332767546</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9909231892008029</v>
+        <v>0.9709866900305085</v>
       </c>
     </row>
   </sheetData>
